--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python_Learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08DB5D1-7A2F-4E91-876D-601604FC5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A832223-E19E-4A75-B815-E6BC650CA951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="2100" windowWidth="25710" windowHeight="18270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="720" windowWidth="25710" windowHeight="18270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="3">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection activeCell="C2" sqref="A2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -379,6 +379,369 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
         <v>1</v>
       </c>
     </row>
